--- a/postmortem/PSP-SCRIPTS.xlsx
+++ b/postmortem/PSP-SCRIPTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t xml:space="preserve">Ingeniero: </t>
   </si>
@@ -87,30 +87,15 @@
     <t>Emiraldo Lozano Sanchez</t>
   </si>
   <si>
-    <t>2 Horas</t>
-  </si>
-  <si>
     <t>Modelado</t>
   </si>
   <si>
     <t>Codificacion</t>
   </si>
   <si>
-    <t>24 Horas</t>
-  </si>
-  <si>
     <t>1 Hora</t>
   </si>
   <si>
-    <t>1  Hora</t>
-  </si>
-  <si>
-    <t>3 Horas</t>
-  </si>
-  <si>
-    <t>2 Hora</t>
-  </si>
-  <si>
     <t>2:00:PM</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>3:00:AM</t>
   </si>
   <si>
-    <t>8,1 Horas</t>
-  </si>
-  <si>
     <t>php</t>
   </si>
   <si>
@@ -159,18 +141,12 @@
     <t>html</t>
   </si>
   <si>
-    <t>1 Horas</t>
-  </si>
-  <si>
     <t>4:00:AM</t>
   </si>
   <si>
     <t>Se revisa el correcto funcionamiento de todas las paginas</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>errores</t>
   </si>
   <si>
@@ -184,6 +160,9 @@
   </si>
   <si>
     <t>LINES DE CODIGO</t>
+  </si>
+  <si>
+    <t>11:00:AM</t>
   </si>
 </sst>
 </file>
@@ -309,17 +288,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,35 +782,35 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="25">
         <v>42063</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -854,11 +833,11 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>42063</v>
@@ -871,11 +850,11 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>42063</v>
@@ -888,11 +867,11 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>8.1</v>
       </c>
       <c r="E12" s="2">
         <v>42040</v>
@@ -905,11 +884,11 @@
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>42040</v>
@@ -922,11 +901,11 @@
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>42040</v>
@@ -953,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,35 +950,35 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="25">
         <v>42063</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1021,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1029,10 +1008,10 @@
         <v>42063</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -1041,13 +1020,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H9" s="19">
         <v>3</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -1058,37 +1037,37 @@
         <v>42063</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" s="19">
         <v>1</v>
       </c>
       <c r="I10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1096,19 +1075,19 @@
         <v>42065</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H11" s="19">
         <v>1.6</v>
@@ -1140,13 +1119,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H12" s="19">
         <v>1.5</v>
@@ -1172,19 +1151,19 @@
         <v>42067</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H13" s="19">
         <v>3</v>
@@ -1210,19 +1189,19 @@
         <v>42068</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H14" s="19">
         <v>2</v>
@@ -1240,10 +1219,10 @@
         <v>20</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P14" s="19">
         <v>38</v>
@@ -1254,10 +1233,10 @@
         <v>42068</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1266,9 +1245,9 @@
         <v>6</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="25">
+        <v>39</v>
+      </c>
+      <c r="H15" s="23">
         <v>1</v>
       </c>
       <c r="I15" s="20">
@@ -1291,7 +1270,7 @@
         <f>SUM(I15:L15)</f>
         <v>217</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="21">
         <f>(M15/H17)</f>
         <v>14.370860927152318</v>
       </c>
@@ -1305,10 +1284,10 @@
         <v>42068</v>
       </c>
       <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1316,10 +1295,8 @@
       <c r="F16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="25">
+      <c r="G16" s="22"/>
+      <c r="H16" s="23">
         <v>2</v>
       </c>
     </row>
